--- a/Tables/Table S11.xlsx
+++ b/Tables/Table S11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenup\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\Sucesso das Cutias\GitHub Repo\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\02-Aceitos\Sucesso das Cutias\GitHub Repo\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -109,9 +109,6 @@
     <t>Car Rental</t>
   </si>
   <si>
-    <t>Camera-Traps (33un.)</t>
-  </si>
-  <si>
     <t>Reintroduction / Population Monitoring</t>
   </si>
   <si>
@@ -136,21 +133,12 @@
     <t>Weighing Scale</t>
   </si>
   <si>
-    <t>Aluminum Branding Iron (9un.)</t>
-  </si>
-  <si>
-    <t>Tomahawk Live Traps (40un.)</t>
-  </si>
-  <si>
     <t>Reintroduction</t>
   </si>
   <si>
     <t>Food Supplementation</t>
   </si>
   <si>
-    <t>Acclimatization Pen (2un.)</t>
-  </si>
-  <si>
     <t>BRL</t>
   </si>
   <si>
@@ -173,6 +161,18 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>Acclimatization Pen (2 units)</t>
+  </si>
+  <si>
+    <t>Tomahawk Live Traps (40 units)</t>
+  </si>
+  <si>
+    <t>Aluminum Branding Iron (9 units)</t>
+  </si>
+  <si>
+    <t>Camera-Traps (33 units)</t>
   </si>
 </sst>
 </file>
@@ -198,13 +198,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -216,6 +209,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -248,37 +248,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -317,61 +286,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,367 +628,367 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="7" width="13.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="18" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>37</v>
+      <c r="A1" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="20"/>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="7"/>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>30</v>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="12">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14">
         <v>4060</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <v>14000.000000000002</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="15">
         <v>4060</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="14">
         <v>14000.000000000002</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14">
         <v>19.14</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>66</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13">
         <v>43</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="15">
         <v>823.02</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="14">
         <v>2838</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="12">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14">
         <v>1508</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>5200</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="15">
         <v>1508</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="14">
         <v>5200</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14">
         <v>201.84</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <v>696.00000000000011</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="15">
         <v>201.84</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="14">
         <v>696.00000000000011</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="12">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14">
         <v>87</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>300</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="15">
         <v>87</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="14">
         <v>300</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="12">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14">
         <v>87</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <v>300</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="15">
         <v>87</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="14">
         <v>300</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12">
+        <v>21</v>
+      </c>
+      <c r="B9" s="14">
         <v>1.91</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>6.5862068965517242</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="13">
         <v>57</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="15">
         <v>108.86999999999999</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="14">
         <v>375.41379310344826</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="12">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14">
         <v>1.45</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="13">
         <v>57</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="15">
         <v>82.649999999999991</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="14">
         <v>285</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="12">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14">
         <v>1.45</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>5</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13">
         <v>57</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="15">
         <v>82.649999999999991</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="14">
         <v>285</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="12">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14">
         <v>0.97</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <v>3.3448275862068968</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="13">
         <v>57</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="15">
         <v>55.29</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="14">
         <v>190.65517241379311</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12">
+        <v>17</v>
+      </c>
+      <c r="B13" s="14">
         <v>0.35</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>1.2068965517241379</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="13">
         <v>57</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="15">
         <v>19.95</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <v>68.793103448275858</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="12">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14">
         <v>11484</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>39600</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1028,10 +1000,10 @@
       <c r="F14" s="13">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="15">
         <v>11484</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="14">
         <v>39600</v>
       </c>
       <c r="I14" s="3"/>
@@ -1040,10 +1012,10 @@
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>348</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <v>1200</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1055,10 +1027,10 @@
       <c r="F15" s="13">
         <v>7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="15">
         <v>2436</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="14">
         <v>8400</v>
       </c>
       <c r="I15" s="3"/>
@@ -1067,10 +1039,10 @@
       <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>290</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <v>1000.0000000000001</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1082,10 +1054,10 @@
       <c r="F16" s="13">
         <v>7</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="15">
         <v>2030</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="14">
         <v>7000.0000000000009</v>
       </c>
       <c r="I16" s="3"/>
@@ -1094,10 +1066,10 @@
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>198.65</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <v>685.00000000000011</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -1109,10 +1081,10 @@
       <c r="F17" s="13">
         <v>7</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="15">
         <v>1390.55</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="14">
         <v>4795.0000000000009</v>
       </c>
       <c r="I17" s="3"/>
@@ -1121,10 +1093,10 @@
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>192.85</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <v>665</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1136,10 +1108,10 @@
       <c r="F18" s="13">
         <v>7</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="15">
         <v>1349.95</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="14">
         <v>4655</v>
       </c>
       <c r="I18" s="3"/>
@@ -1148,10 +1120,10 @@
       <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <v>72.5</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="14">
         <v>250.00000000000003</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -1163,10 +1135,10 @@
       <c r="F19" s="13">
         <v>7</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="15">
         <v>507.5</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="14">
         <v>1750.0000000000002</v>
       </c>
       <c r="I19" s="3"/>
@@ -1175,10 +1147,10 @@
       <c r="A20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>47.91</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="14">
         <v>165.20689655172413</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -1190,10 +1162,10 @@
       <c r="F20" s="13">
         <v>7</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="15">
         <v>335.37</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="14">
         <v>1156.4482758620688</v>
       </c>
       <c r="I20" s="3"/>
@@ -1202,10 +1174,10 @@
       <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <v>2320</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="14">
         <v>8000.0000000000009</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1217,10 +1189,10 @@
       <c r="F21" s="13">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="15">
         <v>2320</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="14">
         <v>8000.0000000000009</v>
       </c>
       <c r="I21" s="3"/>
@@ -1229,10 +1201,10 @@
       <c r="A22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="14">
         <v>290</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="14">
         <v>1000.0000000000001</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -1244,73 +1216,73 @@
       <c r="F22" s="13">
         <v>31</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="15">
         <v>8990</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="14">
         <v>31000.000000000004</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="17">
         <v>3.4482758620689657</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="16">
         <v>31</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="15">
         <v>31</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="17">
         <v>106.89655172413794</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="15">
         <v>37990.639999999999</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="17">
         <v>131002.20689655174</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="15">
         <v>6331.7733333333299</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="17">
         <v>21833.701149425291</v>
       </c>
       <c r="I25" s="3"/>
@@ -1319,7 +1291,16 @@
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A25:F25"/>
@@ -1332,6 +1313,7 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>